--- a/storage/app/public/vocabs/rockphysics/1.2/rockphysics_1-2.xlsx
+++ b/storage/app/public/vocabs/rockphysics/1.2/rockphysics_1-2.xlsx
@@ -815,7 +815,7 @@
     <t>distributed fibre sensing</t>
   </si>
   <si>
-    <t>#distributed fiber sensing#distributed fibre#distributed fiber#fiber optics#fibre optics</t>
+    <t>#distributed fiber sensing#distributed fibre#distributed fiber#fiber optics#fibre optics#optical fibers#optical fibres</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/rockphysics/1.2/ancillary_equipment-distributed_fibre_sensing</t>
@@ -1682,7 +1682,7 @@
     <t>brittle deformation</t>
   </si>
   <si>
-    <t>#fracturing#cataclastic deformation#mohr-coulomb#mohr#mohr-circle#coulomb#coulomb-type#brittle microstructure</t>
+    <t>#shear fracturing#cataclastic deformation#mohr-coulomb#mohr#mohr-circle#coulomb#coulomb-type#brittle microstructure</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/rockphysics/1.2/inferred_deformation_behavior-deformation_behaviour-brittle_deformation</t>
@@ -1691,7 +1691,7 @@
     <t>frictional deformation</t>
   </si>
   <si>
-    <t>#friction#friction coefficient#frictional#fault microstructure#fault gouge microstructure</t>
+    <t>#friction#friction coefficient#frictional#fault microstructure#fault gouge microstructure#slip behavior#fault weakening</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/rockphysics/1.2/inferred_deformation_behavior-deformation_behaviour-frictional_deformation</t>
@@ -1964,7 +1964,7 @@
     <t>https://epos-msl.uu.nl/voc/rockphysics/1.2/inferred_deformation_behavior-microphysical_deformation_mechanism-fluid_absorption</t>
   </si>
   <si>
-    <t>#flash heating#friction heating#shear heating#pseudotachylite</t>
+    <t>#frictional flash heating#flash frictional heating#friction heating#shear heating#pseudotachylite</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/rockphysics/1.2/inferred_deformation_behavior-microphysical_deformation_mechanism-frictional_heating</t>
